--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1771252.331781425</v>
+        <v>1812584.923238435</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6129993.099115173</v>
+        <v>6214594.242775854</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.0659616274502</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,13 +665,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>138.8517620092609</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.615746391575342</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>92.85483486179584</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>335.0452643929979</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>370.616804003459</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>142.8403896021446</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>224.4572552511484</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.67859516108212</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>116.8382698095972</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>88.41646493927657</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>129.7853418074798</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170431</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527421</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695759</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.6047512078533</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225818</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855468</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,10 +1844,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>338.5938950307369</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773009</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.3431845617047</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>60.94899222869527</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170433</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225813</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225763</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225762</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>35.5167825707945</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>31.24391673888511</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3743,7 +3743,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>425.1626604146192</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>33.08339867820199</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>126.5517316786947</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>278.9374345281279</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1357.762053393192</v>
+        <v>263.9964487731801</v>
       </c>
       <c r="C2" t="n">
-        <v>1323.65998461702</v>
+        <v>229.8943799970074</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.790603831868</v>
+        <v>198.024999211856</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>709.6437982983157</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>694.5417389180304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>690.2960192580879</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.62624071431071</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="C4" t="n">
-        <v>40.62624071431071</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4525,13 +4525,13 @@
         <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>459.8645301191896</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.4448594332978</v>
+        <v>339.4371178854062</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>459.0953570592739</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>424.9932882831012</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5980855216599</v>
+        <v>393.1239074979498</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>363.389566696649</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>557.7649106726448</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>557.7649106726448</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346892</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663909</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1679.712849597736</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1274.857395008769</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>855.7149315880796</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>481.3545235037776</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993467</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.659647297092</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.5053801183834</v>
+        <v>593.0357356940381</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>448.75251387369</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>448.75251387369</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>68.8461756808652</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>343.6046302520008</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477222</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055677</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>206.5053801183834</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.5053801183834</v>
+        <v>784.8543544130252</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>863.8788077480212</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1033.105672808467</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>613.9632093877782</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.6770856874316</v>
+        <v>886.137974192525</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.243825464227</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>770.682113947452</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8041211489747</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1607.873869535694</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1362.482114869106</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1135.062444183214</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168569</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351992</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8298656847314</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939391</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940406</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940406</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353823</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987269</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819519</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>467.7901097834746</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342118</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>121.325051995968</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2404.93095749741</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>2117.975449367841</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170193</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.048432817714</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.677328997526</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953201</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953201</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953201</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523508</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068554</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941594</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4449.87789125861</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4087.260941192437</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3682.40548660347</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3263.263023182781</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2854.976899482434</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.077185838983</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>635.515474322208</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>469.6374815237307</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>299.8794777744679</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>123.1724237362241</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137108</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324158</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243862</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579702</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,49 +5753,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883921</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716171</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731398</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E22" t="n">
-        <v>303.556969623877</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856332</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354686</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066042</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745652</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q22" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>473.314973373139</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,13 +6233,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899182</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>476.1186811406555</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>299.4116271024117</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>133.8203521282393</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7351,31 +7351,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455157</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.04086163858</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410831</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981137</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814533</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773128</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526185</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526185</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399224</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716241</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650067</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.9114920611</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.769028640411</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.482904940065</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271528</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>671.27392107789</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433324</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2681.516586504044</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2403.08358575715</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2116.12807762758</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213872</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861392</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.2639626146351</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.866131237899</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4803.381259633332</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.381259633332</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>965.4711828007307</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C46" t="n">
-        <v>837.6411508020492</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7631580035719</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>502.0051542543091</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>325.2981002160653</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S46" t="n">
-        <v>2713.395586583915</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T46" t="n">
-        <v>2467.51614016237</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="U46" t="n">
-        <v>2189.083139415475</v>
+        <v>2259.828259430057</v>
       </c>
       <c r="V46" t="n">
-        <v>1902.127631285906</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W46" t="n">
-        <v>1630.101226872197</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X46" t="n">
-        <v>1384.70947220561</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y46" t="n">
-        <v>1157.289801519718</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8216,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>512.4570950335028</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238375</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111853</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9881,16 +9881,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288114</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>267.5985112554889</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>143.6516710866836</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.592177662727</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>95.16715305767397</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627259</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>223.1369608195786</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627263</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>248.5691704774793</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>107.2592358276441</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.388026562680752</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>49.73195639979937</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>44.2843627229126</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>5.148518520145956</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>520464.8572800325</v>
+        <v>528919.7388955494</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>520464.8572800325</v>
+        <v>530442.0589261664</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519188.413701719</v>
+        <v>541098.758045891</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>519188.4137017189</v>
+        <v>541098.7580458911</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>526514.6671564505</v>
+        <v>541098.758045891</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>533772.5045911595</v>
+        <v>541098.7580458911</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519188.4137017187</v>
+        <v>541098.7580458911</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>442321.5389095869</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095867</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095868</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="E2" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133155</v>
       </c>
       <c r="G2" t="n">
-        <v>422942.2987515112</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="I2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
         <v>434657.5069133157</v>
@@ -26347,13 +26347,13 @@
         <v>434657.5069133156</v>
       </c>
       <c r="N2" t="n">
-        <v>434657.5069133155</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="O2" t="n">
-        <v>428772.4239884375</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="P2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501612</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998281</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877248</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622351</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940155</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.49019908701</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908701</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="G4" t="n">
-        <v>53091.23475128191</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962276</v>
@@ -26448,16 +26448,16 @@
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>53823.08055742785</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>52352.49019908699</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.236083198</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>47008.77046149021</v>
       </c>
       <c r="C6" t="n">
-        <v>189200.0711212002</v>
+        <v>148796.5254125526</v>
       </c>
       <c r="D6" t="n">
-        <v>189200.0711212</v>
+        <v>208571.2245520573</v>
       </c>
       <c r="E6" t="n">
-        <v>56830.36132786109</v>
+        <v>119999.109637468</v>
       </c>
       <c r="F6" t="n">
-        <v>291185.3833498984</v>
+        <v>302354.2188585176</v>
       </c>
       <c r="G6" t="n">
-        <v>288598.5081571367</v>
+        <v>302354.2188585176</v>
       </c>
       <c r="H6" t="n">
-        <v>289974.688217937</v>
+        <v>302354.2188585176</v>
       </c>
       <c r="I6" t="n">
-        <v>302377.4431979004</v>
+        <v>302354.2188585178</v>
       </c>
       <c r="J6" t="n">
-        <v>191362.9778529102</v>
+        <v>191339.7535135276</v>
       </c>
       <c r="K6" t="n">
-        <v>302377.4431979004</v>
+        <v>249308.3642197452</v>
       </c>
       <c r="L6" t="n">
-        <v>302377.4431979004</v>
+        <v>292961.9171318954</v>
       </c>
       <c r="M6" t="n">
-        <v>106776.2639148326</v>
+        <v>150154.04792053</v>
       </c>
       <c r="N6" t="n">
-        <v>302377.4431979003</v>
+        <v>302354.2188585178</v>
       </c>
       <c r="O6" t="n">
-        <v>298635.1073478116</v>
+        <v>302354.2188585178</v>
       </c>
       <c r="P6" t="n">
-        <v>291185.3833498984</v>
+        <v>302354.2188585178</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939354</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939354</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939354</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9706131526085</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,13 +27385,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>290.5852353840269</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,16 +27430,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>157.6034664789172</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27549,10 +27549,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>150.0830022581258</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>94.39173300028989</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>33.58645845988411</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>27.99570479946269</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27789,10 +27789,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.4805818687733</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.3579796189766</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>287.3649926537459</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>180.8896754302948</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-4.564900488264419e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28381,13 +28381,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.65864328657424e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.045049104724403e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-8.807523739703152e-13</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>512.4570950335028</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238375</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795599</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111853</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157514</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,25 +36121,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>69.04441372935617</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743907979</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36291,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36601,16 +36601,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,13 +37713,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.891691782158</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288114</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -38190,7 +38190,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165111</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
